--- a/outputs-GTDB-r202/f__Bifidobacteriaceae.xlsx
+++ b/outputs-GTDB-r202/f__Bifidobacteriaceae.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>g__Pseudoscardovia</t>
+          <t>g__Pseudoscardovia(reject)</t>
         </is>
       </c>
     </row>
